--- a/NewList.xlsx
+++ b/NewList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1663">
   <si>
     <t xml:space="preserve">ORLAN ROBER</t>
   </si>
@@ -5066,6 +5066,9 @@
   </si>
   <si>
     <t xml:space="preserve">Limitador Ford Falcon Taunus</t>
+  </si>
+  <si>
+    <t>11/08/2024</t>
   </si>
 </sst>
 </file>
@@ -5756,7 +5759,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2:D6"/>
+      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15"/>
@@ -5764,7 +5767,6 @@
     <col customWidth="true" max="1" min="1" width="14.57"/>
     <col customWidth="true" max="2" min="2" width="70.28"/>
     <col customWidth="true" max="3" min="3" style="1" width="15.14"/>
-    <col customWidth="true" max="4" min="4" width="11.61"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.7">
@@ -5772,7 +5774,6 @@
         <v>0</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="19.7">
       <c r="A2" s="4" t="s">
@@ -5784,8 +5785,9 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>1662</v>
+      </c>
     </row>
     <row r="3" ht="13.8">
       <c r="A3" s="6" t="s">
@@ -5797,11 +5799,11 @@
       <c r="C3" s="8" t="n">
         <v>17211.568</v>
       </c>
-      <c r="D3" s="3" t="str">
-        <f>=VLOOKUP(A3,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="D3" t="str">
+        <f>DOLLAR(22638,2)</f>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="13.8">
       <c r="A4" s="6" t="s">
@@ -5813,11 +5815,11 @@
       <c r="C4" s="8" t="n">
         <v>17211.568</v>
       </c>
-      <c r="D4" s="3" t="str">
-        <f>=VLOOKUP(A4,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="D4" t="str">
+        <f>DOLLAR(22638,2)</f>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" ht="13.8">
       <c r="A5" s="6" t="s">
@@ -5829,11 +5831,11 @@
       <c r="C5" s="8" t="n">
         <v>31964.46</v>
       </c>
-      <c r="D5" s="3" t="str">
-        <f>=VLOOKUP(A5,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="D5" t="str">
+        <f>DOLLAR(42055,2)</f>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" ht="13.8">
       <c r="A6" s="6" t="s">
@@ -5845,11 +5847,11 @@
       <c r="C6" s="8" t="n">
         <v>33235.18</v>
       </c>
-      <c r="D6" s="3" t="str">
-        <f>=VLOOKUP(A6,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="D6" t="str">
+        <f>DOLLAR(43725,2)</f>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" ht="13.8">
       <c r="A7" s="6" t="s">
@@ -5862,10 +5864,10 @@
         <v>37268.044</v>
       </c>
       <c r="D7" t="str">
-        <f>=VLOOKUP(A7,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="I7" s="9"/>
+        <f>DOLLAR(49029,2)</f>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" ht="15">
       <c r="A8" s="6" t="s">
@@ -5878,10 +5880,10 @@
         <v>24327.6</v>
       </c>
       <c r="D8" t="str">
-        <f>=VLOOKUP(A8,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="I8" s="9"/>
+        <f>DOLLAR(32010,2)</f>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" ht="15">
       <c r="A9" s="6" t="s">
@@ -5894,10 +5896,10 @@
         <v>27125.692</v>
       </c>
       <c r="D9" t="str">
-        <f>=VLOOKUP(A9,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="I9" s="9"/>
+        <f>DOLLAR(35687,2)</f>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" ht="15">
       <c r="A10" s="6" t="s">
@@ -5910,10 +5912,10 @@
         <v>30025.776</v>
       </c>
       <c r="D10" t="str">
-        <f>=VLOOKUP(A10,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="I10" s="9"/>
+        <f>DOLLAR(39506,2)</f>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" ht="15">
       <c r="A11" s="6" t="s">
@@ -5926,10 +5928,10 @@
         <v>33235.18</v>
       </c>
       <c r="D11" t="str">
-        <f>=VLOOKUP(A11,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="I11" s="9"/>
+        <f>DOLLAR(43725,2)</f>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" ht="15">
       <c r="A12" s="6" t="s">
@@ -5942,10 +5944,10 @@
         <v>11631.268</v>
       </c>
       <c r="D12" t="str">
-        <f>=VLOOKUP(A12,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="I12" s="9"/>
+        <f>DOLLAR(15303,2)</f>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" ht="15">
       <c r="A13" s="6" t="s">
@@ -5958,10 +5960,10 @@
         <v>11631.268</v>
       </c>
       <c r="D13" t="str">
-        <f>=VLOOKUP(A13,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="I13" s="9"/>
+        <f>DOLLAR(15303,2)</f>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" ht="15">
       <c r="A14" s="6" t="s">
@@ -5974,10 +5976,10 @@
         <v>25764.684</v>
       </c>
       <c r="D14" t="str">
-        <f>=VLOOKUP(A14,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="I14" s="9"/>
+        <f>DOLLAR(33899,2)</f>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" ht="15">
       <c r="A15" s="6" t="s">
@@ -5990,10 +5992,10 @@
         <v>28565.284</v>
       </c>
       <c r="D15" t="str">
-        <f>=VLOOKUP(A15,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="I15" s="9"/>
+        <f>DOLLAR(37579,2)</f>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" ht="15">
       <c r="A16" s="6" t="s">
@@ -6006,10 +6008,10 @@
         <v>17211.568</v>
       </c>
       <c r="D16" t="str">
-        <f>=VLOOKUP(A16,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="I16" s="9"/>
+        <f>DOLLAR(22638,2)</f>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" ht="15">
       <c r="A17" s="6" t="s">
@@ -6022,10 +6024,10 @@
         <v>17211.568</v>
       </c>
       <c r="D17" t="str">
-        <f>=VLOOKUP(A17,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="I17" s="9"/>
+        <f>DOLLAR(22638,2)</f>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" ht="15">
       <c r="A18" s="6" t="s">
@@ -6038,11 +6040,11 @@
         <v>31964.46</v>
       </c>
       <c r="D18" t="str">
-        <f>=VLOOKUP(A18,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="K18" s="6"/>
+        <f>DOLLAR(42055,2)</f>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" ht="15">
       <c r="A19" s="6" t="s">
@@ -6055,10 +6057,10 @@
         <v>33235.18</v>
       </c>
       <c r="D19" t="str">
-        <f>=VLOOKUP(A19,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="I19" s="9"/>
+        <f>DOLLAR(43725,2)</f>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" ht="15">
       <c r="A20" s="6" t="s">
@@ -6071,10 +6073,10 @@
         <v>37268.044</v>
       </c>
       <c r="D20" t="str">
-        <f>=VLOOKUP(A20,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="I20" s="9"/>
+        <f>DOLLAR(49029,2)</f>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" ht="15">
       <c r="A21" s="6" t="s">
@@ -6087,10 +6089,10 @@
         <v>24327.6</v>
       </c>
       <c r="D21" t="str">
-        <f>=VLOOKUP(A21,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="I21" s="9"/>
+        <f>DOLLAR(32010,2)</f>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" ht="15">
       <c r="A22" s="6" t="s">
@@ -6103,10 +6105,10 @@
         <v>27125.692</v>
       </c>
       <c r="D22" t="str">
-        <f>=VLOOKUP(A22,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="I22" s="9"/>
+        <f>DOLLAR(35687,2)</f>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" ht="15">
       <c r="A23" s="6" t="s">
@@ -6119,10 +6121,10 @@
         <v>30025.776</v>
       </c>
       <c r="D23" t="str">
-        <f>=VLOOKUP(A23,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="I23" s="9"/>
+        <f>DOLLAR(39506,2)</f>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" ht="15">
       <c r="A24" s="6" t="s">
@@ -6135,10 +6137,10 @@
         <v>33235.18</v>
       </c>
       <c r="D24" t="str">
-        <f>=VLOOKUP(A24,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="I24" s="9"/>
+        <f>DOLLAR(43725,2)</f>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" ht="15">
       <c r="A25" s="6" t="s">
@@ -6151,10 +6153,10 @@
         <v>11631.268</v>
       </c>
       <c r="D25" t="str">
-        <f>=VLOOKUP(A25,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="I25" s="9"/>
+        <f>DOLLAR(15303,2)</f>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" ht="15">
       <c r="A26" s="6" t="s">
@@ -6167,10 +6169,10 @@
         <v>11631.268</v>
       </c>
       <c r="D26" t="str">
-        <f>=VLOOKUP(A26,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="I26" s="9"/>
+        <f>DOLLAR(15303,2)</f>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" ht="15">
       <c r="A27" s="6" t="s">
@@ -6183,10 +6185,10 @@
         <v>25764.684</v>
       </c>
       <c r="D27" t="str">
-        <f>=VLOOKUP(A27,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="I27" s="9"/>
+        <f>DOLLAR(33899,2)</f>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" ht="15">
       <c r="A28" s="6" t="s">
@@ -6199,10 +6201,10 @@
         <v>28565.284</v>
       </c>
       <c r="D28" t="str">
-        <f>=VLOOKUP(A28,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="I28" s="9"/>
+        <f>DOLLAR(37579,2)</f>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" ht="15">
       <c r="A29" s="6" t="s">
@@ -6215,10 +6217,10 @@
         <v>19111.796</v>
       </c>
       <c r="D29" t="str">
-        <f>=VLOOKUP(A29,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="I29" s="9"/>
+        <f>DOLLAR(25141,2)</f>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" ht="15">
       <c r="A30" s="6" t="s">
@@ -6231,10 +6233,10 @@
         <v>31225.436</v>
       </c>
       <c r="D30" t="str">
-        <f>=VLOOKUP(A30,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="I30" s="9"/>
+        <f>DOLLAR(41081,2)</f>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" ht="15">
       <c r="A31" s="6" t="s">
@@ -6247,10 +6249,10 @@
         <v>40097.068</v>
       </c>
       <c r="D31" t="str">
-        <f>=VLOOKUP(A31,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="I31" s="9"/>
+        <f>DOLLAR(52753,2)</f>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" ht="15">
       <c r="A32" s="6" t="s">
@@ -6263,10 +6265,10 @@
         <v>32687.6</v>
       </c>
       <c r="D32" t="str">
-        <f>=VLOOKUP(A32,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="I32" s="9"/>
+        <f>DOLLAR(43010,2)</f>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" ht="15">
       <c r="A33" s="6" t="s">
@@ -6279,10 +6281,10 @@
         <v>35655.4</v>
       </c>
       <c r="D33" t="str">
-        <f>=VLOOKUP(A33,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="I33" s="9"/>
+        <f>DOLLAR(46910,2)</f>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" ht="15">
       <c r="A34" s="6" t="s">
@@ -6295,10 +6297,10 @@
         <v>69456.552</v>
       </c>
       <c r="D34" t="str">
-        <f>=VLOOKUP(A34,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="I34" s="9"/>
+        <f>DOLLAR(91382,2)</f>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" ht="15">
       <c r="A35" s="6" t="s">
@@ -6311,10 +6313,10 @@
         <v>72200.304</v>
       </c>
       <c r="D35" t="str">
-        <f>=VLOOKUP(A35,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="I35" s="9"/>
+        <f>DOLLAR(94994,2)</f>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" ht="15">
       <c r="A36" s="6" t="s">
@@ -6326,11 +6328,8 @@
       <c r="C36" s="8" t="n">
         <v>72200.304</v>
       </c>
-      <c r="D36" t="str">
-        <f>=VLOOKUP(A36,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" ht="15">
       <c r="A37" s="6" t="s">
@@ -6343,10 +6342,10 @@
         <v>52421.38</v>
       </c>
       <c r="D37" t="str">
-        <f>=VLOOKUP(A37,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="I37" s="9"/>
+        <f>DOLLAR(68975,2)</f>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" ht="15">
       <c r="A38" s="6" t="s">
@@ -6359,10 +6358,10 @@
         <v>43146.796</v>
       </c>
       <c r="D38" t="str">
-        <f>=VLOOKUP(A38,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="I38" s="9"/>
+        <f>DOLLAR(56771,2)</f>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" ht="15">
       <c r="A39" s="6" t="s">
@@ -6375,10 +6374,10 @@
         <v>32687.6</v>
       </c>
       <c r="D39" t="str">
-        <f>=VLOOKUP(A39,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="I39" s="9"/>
+        <f>DOLLAR(43010,2)</f>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" ht="15">
       <c r="A40" s="6" t="s">
@@ -6391,9 +6390,9 @@
         <v>5129.696</v>
       </c>
       <c r="D40" t="str">
-        <f>=VLOOKUP(A40,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F40" s="9"/>
+        <f>DOLLAR(6746,2)</f>
+      </c>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" ht="15">
       <c r="A41" s="6" t="s">
@@ -6406,9 +6405,9 @@
         <v>5818.56</v>
       </c>
       <c r="D41" t="str">
-        <f>=VLOOKUP(A41,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F41" s="9"/>
+        <f>DOLLAR(7650,2)</f>
+      </c>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" ht="15">
       <c r="A42" s="6" t="s">
@@ -6421,9 +6420,9 @@
         <v>8523.856</v>
       </c>
       <c r="D42" t="str">
-        <f>=VLOOKUP(A42,Hoja2!A1:C860,3,0)</f>
-      </c>
-      <c r="F42" s="9"/>
+        <f>DOLLAR(11206,2)</f>
+      </c>
+      <c r="E42" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6445,10 +6444,10 @@
   <dimension ref="A1:F870"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A426" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="D431" activeCellId="1" pane="topLeft" sqref="D2:D6 D431"/>
+      <selection activeCell="D431" activeCellId="0" pane="topLeft" sqref="D431"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" ht="17.35">
       <c r="A1" s="12" t="s">
